--- a/Canteen Restaurant List.xlsx
+++ b/Canteen Restaurant List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Can B" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Recommend?</t>
   </si>
   <si>
-    <t xml:space="preserve">Indian cuisine?</t>
+    <t xml:space="preserve">Indian cuisine</t>
   </si>
   <si>
     <t xml:space="preserve">Biryani Dum Set A</t>
@@ -3199,7 +3199,7 @@
   <dimension ref="B1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4148,9 +4148,7 @@
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:C13"/>
-    <mergeCell ref="C14:C18"/>
+  <mergeCells count="1">
     <mergeCell ref="G78:G97"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4171,7 +4169,7 @@
   <dimension ref="B1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
+      <selection pane="topLeft" activeCell="C47" activeCellId="1" sqref="C3:C46 C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5932,7 +5930,7 @@
   <dimension ref="B1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3:C46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7076,7 +7074,7 @@
   <dimension ref="B1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3:C46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7827,7 +7825,7 @@
   <dimension ref="B1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3:C46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8265,8 +8263,8 @@
   </sheetPr>
   <dimension ref="B1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10265,9 +10263,6 @@
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:C46"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10286,7 +10281,7 @@
   <dimension ref="B1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3:C46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11688,8 +11683,8 @@
   </sheetPr>
   <dimension ref="B1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Canteen Restaurant List.xlsx
+++ b/Canteen Restaurant List.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAHAA\Desktop\AAAA10-12\botce1003-Updated-Main-9-10-with-direction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAHAA\Dropbox\Apps\Heroku\testingalsabot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16386" windowHeight="8190" tabRatio="500" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16386" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Koufu @ South Spine" sheetId="1" r:id="rId1"/>
-    <sheet name="North Spine Food Court" sheetId="2" r:id="rId2"/>
+    <sheet name="North Spine Food Court" sheetId="1" r:id="rId1"/>
+    <sheet name="Koufu @ South Spine" sheetId="2" r:id="rId2"/>
     <sheet name="Canteen 1" sheetId="3" r:id="rId3"/>
     <sheet name="Canteen 2" sheetId="4" r:id="rId4"/>
     <sheet name="Canteen 4" sheetId="5" r:id="rId5"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="1525">
   <si>
     <t>Indian Cuisine</t>
   </si>
@@ -3056,10 +3056,6 @@
   </si>
   <si>
     <t>Chapati (per piece)</t>
-  </si>
-  <si>
-    <t>Chapati Set 
-(2 chapati, 2 vegetables, Puthina Chutney)</t>
   </si>
   <si>
     <t>Aloo Paratha (per piece)</t>
@@ -4635,7 +4631,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4708,6 +4704,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="&quot;Calibri&quot;"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4735,7 +4747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4761,12 +4773,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4792,6 +4798,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5106,10 +5120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F1048509"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
@@ -5152,474 +5166,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8">
-      <c r="D4" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.8">
-      <c r="D5" s="13" t="s">
-        <v>999</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.8">
-      <c r="D6" s="13" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.8">
-      <c r="D7" s="13" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.8">
-      <c r="D8" s="13" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="41.4">
-      <c r="D9" s="15" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E9" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.8">
-      <c r="D10" s="13" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.8">
-      <c r="D11" s="13" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.8">
-      <c r="D12" s="13" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.8">
-      <c r="D13" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E13" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.8">
-      <c r="D14" s="13" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.8">
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.8">
-      <c r="A16" s="13">
-        <v>2</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E16" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.8">
-      <c r="D17" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="E17" s="14">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.8">
-      <c r="D18" s="13" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E18" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.8">
-      <c r="D19" s="13" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E19" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.8">
-      <c r="D20" s="13" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E20" s="14">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.8">
-      <c r="D21" s="13" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E21" s="14">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13.8">
-      <c r="D22" s="13" t="s">
-        <v>798</v>
-      </c>
-      <c r="E22" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13.8">
-      <c r="D23" s="13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E23" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13.8">
-      <c r="D24" s="13" t="s">
-        <v>913</v>
-      </c>
-      <c r="E24" s="14">
-        <v>3</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" ht="13.8">
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="13.8">
-      <c r="A26" s="13">
-        <v>3</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E26" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="13.8">
-      <c r="D27" s="13" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E27" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="13.8">
-      <c r="D28" s="13" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E28" s="14">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="13.8">
-      <c r="D29" s="13" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E29" s="14">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="13.8">
-      <c r="D30" s="13" t="s">
-        <v>954</v>
-      </c>
-      <c r="E30" s="14">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="13.8">
-      <c r="D31" s="13" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E31" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="13.8">
-      <c r="D32" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E32" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="13.8">
-      <c r="D33" s="13" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E33" s="14">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="13.8">
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" ht="13.8">
-      <c r="A35" s="13">
-        <v>4</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E35" s="14">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="13.8">
-      <c r="D36" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E36" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="13.8">
-      <c r="D37" s="13" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E37" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="13.8">
-      <c r="D38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="13.8">
-      <c r="D39" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="14">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="13.8">
-      <c r="D40" s="13" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E40" s="14">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="13.8">
-      <c r="D41" s="13" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E41" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="13.8">
-      <c r="D42" s="13" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E42" s="14">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="13.8">
-      <c r="D43" s="13" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E43" s="14">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="13.8">
-      <c r="D44" s="13" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E44" s="14">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="13.8">
-      <c r="D45" s="13" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E45" s="14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="13.8">
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" ht="13.8">
-      <c r="A47" s="13">
-        <v>5</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E47" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="13.8">
-      <c r="D48" s="13" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E48" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" ht="13.8">
-      <c r="D49" s="13" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E49" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" ht="13.8">
-      <c r="D50" s="13" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E50" s="14">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" ht="13.8">
-      <c r="D51" s="13" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E51" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" ht="13.8">
-      <c r="D52" s="13" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E52" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" ht="13.8">
-      <c r="D53" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="E53" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" ht="13.8">
-      <c r="D54" s="13" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E54" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="1048576" ht="15.75" customHeight="1"/>
+    <row r="1048509" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5630,7 +5177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -5724,7 +5271,7 @@
     </row>
     <row r="9" spans="1:6" ht="27.6">
       <c r="D9" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -5732,7 +5279,7 @@
     </row>
     <row r="10" spans="1:6" ht="13.8">
       <c r="D10" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E10" s="3">
         <v>1.1000000000000001</v>
@@ -5740,7 +5287,7 @@
     </row>
     <row r="11" spans="1:6" ht="13.8">
       <c r="D11" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E11" s="3">
         <v>0.7</v>
@@ -5748,7 +5295,7 @@
     </row>
     <row r="12" spans="1:6" ht="13.8">
       <c r="D12" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E12" s="3">
         <v>1.5</v>
@@ -5756,7 +5303,7 @@
     </row>
     <row r="13" spans="1:6" ht="13.8">
       <c r="D13" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E13" s="3">
         <v>2.2999999999999998</v>
@@ -5764,7 +5311,7 @@
     </row>
     <row r="14" spans="1:6" ht="13.8">
       <c r="D14" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E14" s="3">
         <v>1.5</v>
@@ -5781,10 +5328,10 @@
         <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>1009</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1010</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
@@ -5800,7 +5347,7 @@
     </row>
     <row r="18" spans="1:6" ht="13.8">
       <c r="D18" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E18" s="3">
         <v>2.5</v>
@@ -5808,7 +5355,7 @@
     </row>
     <row r="19" spans="1:6" ht="13.8">
       <c r="D19" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
@@ -5816,7 +5363,7 @@
     </row>
     <row r="20" spans="1:6" ht="13.8">
       <c r="D20" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E20" s="3">
         <v>3.5</v>
@@ -5824,7 +5371,7 @@
     </row>
     <row r="21" spans="1:6" ht="13.8">
       <c r="D21" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E21" s="3">
         <v>3.5</v>
@@ -5843,7 +5390,7 @@
     </row>
     <row r="23" spans="1:6" ht="13.8">
       <c r="D23" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E23" s="3">
         <v>2.8</v>
@@ -5872,10 +5419,10 @@
         <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>1016</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>1017</v>
       </c>
       <c r="E26" s="3">
         <v>3.5</v>
@@ -5886,7 +5433,7 @@
     </row>
     <row r="27" spans="1:6" ht="13.8">
       <c r="D27" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -5894,7 +5441,7 @@
     </row>
     <row r="28" spans="1:6" ht="13.8">
       <c r="D28" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E28" s="3">
         <v>3.5</v>
@@ -5902,7 +5449,7 @@
     </row>
     <row r="29" spans="1:6" ht="13.8">
       <c r="D29" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E29" s="3">
         <v>3.5</v>
@@ -5918,7 +5465,7 @@
     </row>
     <row r="31" spans="1:6" ht="13.8">
       <c r="D31" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E31" s="3">
         <v>4</v>
@@ -5934,7 +5481,7 @@
     </row>
     <row r="33" spans="1:6" ht="13.8">
       <c r="D33" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E33" s="3">
         <v>3.5</v>
@@ -5951,10 +5498,10 @@
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>1023</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>1024</v>
       </c>
       <c r="E35" s="3">
         <v>3.5</v>
@@ -5970,7 +5517,7 @@
     </row>
     <row r="37" spans="1:6" ht="13.8">
       <c r="D37" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E37" s="3">
         <v>3.5</v>
@@ -6000,7 +5547,7 @@
     </row>
     <row r="40" spans="1:6" ht="13.8">
       <c r="D40" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E40" s="3">
         <v>3.8</v>
@@ -6008,7 +5555,7 @@
     </row>
     <row r="41" spans="1:6" ht="13.8">
       <c r="D41" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E41" s="3">
         <v>3.5</v>
@@ -6019,7 +5566,7 @@
     </row>
     <row r="42" spans="1:6" ht="13.8">
       <c r="D42" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E42" s="3">
         <v>4.8</v>
@@ -6027,7 +5574,7 @@
     </row>
     <row r="43" spans="1:6" ht="13.8">
       <c r="D43" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E43" s="3">
         <v>3.2</v>
@@ -6035,7 +5582,7 @@
     </row>
     <row r="44" spans="1:6" ht="13.8">
       <c r="D44" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E44" s="3">
         <v>4.2</v>
@@ -6043,7 +5590,7 @@
     </row>
     <row r="45" spans="1:6" ht="13.8">
       <c r="D45" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E45" s="3">
         <v>2.5</v>
@@ -6060,10 +5607,10 @@
         <v>252</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>1032</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>1033</v>
       </c>
       <c r="E47" s="3">
         <v>0.5</v>
@@ -6074,7 +5621,7 @@
     </row>
     <row r="48" spans="1:6" ht="13.8">
       <c r="D48" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E48" s="3">
         <v>0.8</v>
@@ -6085,7 +5632,7 @@
     </row>
     <row r="49" spans="4:6" ht="13.8">
       <c r="D49" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E49" s="3">
         <v>1.8</v>
@@ -6096,7 +5643,7 @@
     </row>
     <row r="50" spans="4:6" ht="13.8">
       <c r="D50" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E50" s="3">
         <v>1.8</v>
@@ -6104,7 +5651,7 @@
     </row>
     <row r="51" spans="4:6" ht="13.8">
       <c r="D51" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -6112,7 +5659,7 @@
     </row>
     <row r="52" spans="4:6" ht="13.8">
       <c r="D52" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -6131,7 +5678,7 @@
     </row>
     <row r="54" spans="4:6" ht="13.8">
       <c r="D54" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E54" s="3">
         <v>2.5</v>
@@ -6151,2281 +5698,2282 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="2" width="7.71875" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.71875" customWidth="1"/>
-    <col min="7" max="1025" width="14.44140625" customWidth="1"/>
+    <col min="1" max="2" width="7.71875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="22" style="31" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="16.71875" style="31" customWidth="1"/>
+    <col min="7" max="1025" width="14.44140625" style="31" customWidth="1"/>
+    <col min="1026" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.8">
-      <c r="E1" s="1"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="13.8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="13.8">
-      <c r="A3" s="2">
+      <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="33" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>1040</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.8">
+      <c r="D4" s="33" t="s">
         <v>1041</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.8">
+      <c r="D5" s="33" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E5" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.8">
+      <c r="D6" s="33" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E6" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8">
+      <c r="D7" s="33" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E7" s="34">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8">
+      <c r="D8" s="33" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E8" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8">
+      <c r="D9" s="33" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E9" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.8">
+      <c r="D10" s="33" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E10" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.8">
+      <c r="D11" s="33" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E11" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.8">
+      <c r="D12" s="33" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E12" s="34">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.8">
+      <c r="D13" s="33" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E13" s="34">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.8">
+      <c r="D14" s="33" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E14" s="34">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.8">
+      <c r="D15" s="33" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E15" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.8">
+      <c r="D16" s="33" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E16" s="34">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.8">
+      <c r="D17" s="33" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E17" s="34">
+        <v>1</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.8">
+      <c r="D18" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E18" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.8">
+      <c r="D19" s="33" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E19" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.8">
+      <c r="D20" s="33" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E20" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.8">
+      <c r="D21" s="33" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E21" s="34">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.8">
+      <c r="D22" s="33" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E22" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.8">
+      <c r="D23" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="E23" s="34">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.8">
+      <c r="D24" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E24" s="34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.8">
+      <c r="D25" s="33" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E25" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.8">
+      <c r="D26" s="33" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E26" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.8">
+      <c r="D27" s="33" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E27" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.8">
+      <c r="D28" s="33" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E28" s="34">
+        <v>2.8</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.8">
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="1:6" ht="13.8">
+      <c r="A30" s="33">
+        <v>2</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E30" s="34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.8">
+      <c r="D31" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.8">
+      <c r="D32" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="E32" s="34">
+        <v>1</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="13.8">
+      <c r="D33" s="33" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E33" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="13.8">
+      <c r="D34" s="33" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E34" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="13.8">
+      <c r="D35" s="33" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="13.8">
+      <c r="D36" s="33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" ht="13.8">
+      <c r="D37" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="13.8">
+      <c r="D38" s="33" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E38" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="13.8">
+      <c r="D39" s="33" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E39" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" ht="13.8">
+      <c r="D40" s="33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E40" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" ht="13.8">
+      <c r="D41" s="33" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E41" s="34">
+        <v>1</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="13.8">
+      <c r="D42" s="33" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="13.8">
+      <c r="D43" s="33" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E43" s="34">
+        <v>1</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" ht="13.8">
+      <c r="D44" s="33" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E44" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="13.8">
+      <c r="D45" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="E45" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="13.8">
+      <c r="D46" s="33" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E46" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" ht="13.8">
+      <c r="D47" s="33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E47" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" ht="13.8">
+      <c r="D48" s="33" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:6" ht="13.8">
+      <c r="D49" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.8">
+      <c r="D50" s="33" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:6" ht="13.8">
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:6" ht="13.8">
+      <c r="A52" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.8">
-      <c r="D4" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B52" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E52" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13.8">
+      <c r="D53" s="33" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E53" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13.8">
+      <c r="D54" s="33" t="s">
+        <v>740</v>
+      </c>
+      <c r="E54" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13.8">
+      <c r="D55" s="33" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E55" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="13.8">
+      <c r="D56" s="33" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E56" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13.8">
+      <c r="D57" s="33" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E57" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13.8">
+      <c r="D58" s="33" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E58" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="13.8">
+      <c r="D59" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13.8">
+      <c r="D60" s="33" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E60" s="34">
+        <v>3</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13.8">
+      <c r="D61" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.8">
+      <c r="D62" s="33" t="s">
+        <v>773</v>
+      </c>
+      <c r="E62" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.8">
+      <c r="D63" s="33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E63" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.8">
+      <c r="D64" s="33" t="s">
+        <v>861</v>
+      </c>
+      <c r="E64" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13.8">
+      <c r="D65" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E65" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13.8">
+      <c r="D66" s="33" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E66" s="34">
+        <v>3</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13.8">
+      <c r="D67" s="33" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E67" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="13.8">
+      <c r="D68" s="33" t="s">
+        <v>772</v>
+      </c>
+      <c r="E68" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="13.8">
+      <c r="D69" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E69" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="13.8">
+      <c r="D70" s="33" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E70" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="13.8">
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.8">
+      <c r="A72" s="33">
+        <v>4</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E72" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13.8">
+      <c r="D73" s="33" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E73" s="34">
+        <v>3.3</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="13.8">
+      <c r="D74" s="33" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E74" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13.8">
+      <c r="D75" s="33" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E75" s="34">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="13.8">
+      <c r="D76" s="33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E76" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13.8">
+      <c r="D77" s="33" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E77" s="34">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13.8">
+      <c r="D78" s="33" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E78" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="13.8">
+      <c r="D79" s="33" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E79" s="34">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="13.8">
+      <c r="E80" s="32"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.8">
+      <c r="A81" s="33">
+        <v>5</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E81" s="34">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="13.8">
+      <c r="D82" s="33" t="s">
+        <v>651</v>
+      </c>
+      <c r="E82" s="34">
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.8">
-      <c r="D5" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E5" s="3">
+    <row r="83" spans="1:6" ht="13.8">
+      <c r="D83" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="E83" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="13.8">
+      <c r="D84" s="33" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E84" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="13.8">
+      <c r="D85" s="33" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E85" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="13.8">
+      <c r="D86" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="E86" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="13.8">
+      <c r="D87" s="33" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E87" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="13.8">
+      <c r="D88" s="33" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E88" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="13.8">
+      <c r="D89" s="33" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E89" s="34">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="13.8">
+      <c r="D90" s="33" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E90" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="13.8">
+      <c r="D91" s="33" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E91" s="34">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="13.8">
+      <c r="D92" s="33" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E92" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="13.8">
+      <c r="D93" s="33" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E93" s="34">
+        <v>3</v>
+      </c>
+      <c r="F93" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="13.8">
+      <c r="D94" s="33" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E94" s="34">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="13.8">
+      <c r="D95" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="E95" s="34">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="13.8">
+      <c r="D96" s="33" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E96" s="34">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="13.8">
+      <c r="D97" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E97" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="13.8">
+      <c r="D98" s="33" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E98" s="34">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="13.8">
+      <c r="D99" s="33" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E99" s="34">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="13.8">
+      <c r="D100" s="33" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E100" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="13.8">
+      <c r="D101" s="33" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E101" s="34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="13.8">
+      <c r="D102" s="33" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E102" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="13.8">
+      <c r="D103" s="33" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E103" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="13.8">
+      <c r="D104" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E104" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="13.8">
+      <c r="D105" s="33" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E105" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="13.8">
+      <c r="D106" s="33" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E106" s="34">
+        <v>3.8</v>
+      </c>
+      <c r="F106" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="13.8">
+      <c r="D107" s="33" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E107" s="34">
+        <v>3.8</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="13.8">
+      <c r="D108" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="E108" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="13.8">
+      <c r="E109" s="32"/>
+    </row>
+    <row r="110" spans="1:7" ht="13.8">
+      <c r="A110" s="33">
+        <v>6</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E110" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="G110" s="33" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="13.8">
+      <c r="D111" s="33" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E111" s="34">
+        <v>5</v>
+      </c>
+      <c r="G111" s="33" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="13.8">
+      <c r="D112" s="33" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E112" s="34">
+        <v>6</v>
+      </c>
+      <c r="G112" s="33" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="13.8">
+      <c r="D113" s="33" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E113" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="G113" s="33" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="13.8">
+      <c r="D114" s="33" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E114" s="34">
+        <v>4.8</v>
+      </c>
+      <c r="G114" s="33" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="13.8">
+      <c r="D115" s="33" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E115" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="13.8">
+      <c r="D116" s="33" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E116" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="13.8">
+      <c r="D117" s="33" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E117" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="13.8">
+      <c r="D118" s="33" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E118" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="13.8">
+      <c r="D119" s="33" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E119" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="F119" s="33"/>
+    </row>
+    <row r="120" spans="1:7" ht="13.8">
+      <c r="D120" s="33" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E120" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="13.8">
+      <c r="D121" s="33" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E121" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="13.8">
+      <c r="D122" s="33" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E122" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="13.8">
+      <c r="D123" s="33" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E123" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="13.8">
+      <c r="E124" s="32"/>
+    </row>
+    <row r="125" spans="1:7" ht="13.8">
+      <c r="A125" s="33">
+        <v>7</v>
+      </c>
+      <c r="B125" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E125" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="13.8">
+      <c r="D126" s="33" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E126" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="13.8">
+      <c r="D127" s="33" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E127" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="13.8">
+      <c r="D128" s="33" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E128" s="34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="13.8">
+      <c r="D129" s="33" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E129" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="F129" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="13.8">
+      <c r="D130" s="33" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E130" s="34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="13.8">
+      <c r="D131" s="33" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E131" s="34">
+        <v>1</v>
+      </c>
+      <c r="F131" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="13.8">
+      <c r="D132" s="33" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E132" s="34">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="13.8">
+      <c r="D133" s="33" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E133" s="34">
+        <v>2.1</v>
+      </c>
+      <c r="F133" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="13.8">
+      <c r="D134" s="33" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E134" s="34">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="13.8">
+      <c r="D135" s="33" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E135" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="13.8">
+      <c r="E136" s="32"/>
+    </row>
+    <row r="137" spans="1:6" ht="13.8">
+      <c r="A137" s="33">
+        <v>8</v>
+      </c>
+      <c r="B137" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D137" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E137" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="13.8">
+      <c r="D138" s="33" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E138" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="13.8">
+      <c r="D139" s="33" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E139" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="13.8">
+      <c r="D140" s="33" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E140" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="13.8">
+      <c r="D141" s="33" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E141" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="F141" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="13.8">
+      <c r="D142" s="33" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E142" s="34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="13.8">
+      <c r="D143" s="33" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E143" s="34">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="13.8">
+      <c r="D144" s="33" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E144" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="13.8">
+      <c r="D145" s="33" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E145" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="13.8">
+      <c r="D146" s="33" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E146" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="13.8">
+      <c r="D147" s="33" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E147" s="34">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="13.8">
+      <c r="D148" s="33" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E148" s="34">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="13.8">
+      <c r="D149" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E149" s="34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="13.8">
+      <c r="D150" s="33" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E150" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="13.8">
+      <c r="D151" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E151" s="34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="13.8">
+      <c r="E152" s="32"/>
+    </row>
+    <row r="153" spans="1:6" ht="13.8">
+      <c r="A153" s="33">
+        <v>9</v>
+      </c>
+      <c r="B153" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E153" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="F153" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="13.8">
+      <c r="D154" s="33" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E154" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F154" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="13.8">
+      <c r="D155" s="33" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E155" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="F155" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="13.8">
+      <c r="D156" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E156" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="F156" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="13.8">
+      <c r="D157" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="E157" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="13.8">
+      <c r="D158" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E158" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F158" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="13.8">
+      <c r="D159" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E159" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F159" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="13.8">
+      <c r="D160" s="33" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E160" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F160" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="161" spans="4:6" ht="13.8">
+      <c r="D161" s="33" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E161" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="F161" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6" ht="13.8">
+      <c r="D162" s="33" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E162" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="F162" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6" ht="13.8">
+      <c r="D163" s="33" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E163" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="F163" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" ht="13.8">
+      <c r="D164" s="33" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E164" s="34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F164" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6" ht="13.8">
+      <c r="D165" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E165" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="F165" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6" ht="13.8">
+      <c r="D166" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E166" s="34">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.8">
-      <c r="D6" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="F166" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6" ht="13.8">
+      <c r="D167" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E167" s="34">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.8">
-      <c r="D7" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.8">
-      <c r="D8" s="2" t="s">
+      <c r="F167" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="168" spans="4:6" ht="13.8">
+      <c r="D168" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E168" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="F168" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="169" spans="4:6" ht="13.8">
+      <c r="D169" s="33" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E169" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="F169" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="170" spans="4:6" ht="13.8">
+      <c r="D170" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E170" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="F170" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="171" spans="4:6" ht="13.8">
+      <c r="D171" s="33" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E171" s="34">
+        <v>2.1</v>
+      </c>
+      <c r="F171" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="172" spans="4:6" ht="13.8">
+      <c r="D172" s="33" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E172" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="F172" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="173" spans="4:6" ht="13.8">
+      <c r="D173" s="33" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E173" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="F173" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="174" spans="4:6" ht="13.8">
+      <c r="D174" s="33" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E174" s="34">
+        <v>1.9</v>
+      </c>
+      <c r="F174" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="4:6" ht="13.8">
+      <c r="D175" s="33" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E175" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="F175" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="176" spans="4:6" ht="13.8">
+      <c r="D176" s="33" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E176" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="F176" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="13.8">
+      <c r="E177" s="32"/>
+    </row>
+    <row r="178" spans="1:6" ht="13.8">
+      <c r="A178" s="33">
+        <v>10</v>
+      </c>
+      <c r="B178" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D178" s="33" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E178" s="34">
+        <v>4.2</v>
+      </c>
+      <c r="F178" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="13.8">
+      <c r="D179" s="33" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E179" s="34">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="13.8">
+      <c r="D180" s="33" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E180" s="34">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="13.8">
+      <c r="D181" s="33" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E181" s="34">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="13.8">
+      <c r="D182" s="33" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E182" s="34">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="13.8">
+      <c r="D183" s="33" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E183" s="34">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="13.8">
+      <c r="D184" s="33" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E184" s="34" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="13.8">
+      <c r="D185" s="33" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E185" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="13.8">
+      <c r="D186" s="33" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E186" s="34" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="13.8">
+      <c r="D187" s="33" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E187" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="13.8">
+      <c r="D188" s="33" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E188" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F188" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="13.8">
+      <c r="D189" s="33" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E189" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="13.8">
+      <c r="D190" s="33" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E190" s="34">
+        <v>1</v>
+      </c>
+      <c r="F190" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="13.8">
+      <c r="D191" s="33" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E191" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="13.8">
+      <c r="D192" s="33" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E192" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="13.8">
+      <c r="E193" s="32"/>
+    </row>
+    <row r="194" spans="1:6" ht="13.8">
+      <c r="A194" s="33">
+        <v>11</v>
+      </c>
+      <c r="B194" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D194" s="33" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E194" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="F194" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="13.8">
+      <c r="D195" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E195" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="13.8">
+      <c r="D196" s="33" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E196" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="13.8">
+      <c r="D197" s="33" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E197" s="34">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="13.8">
+      <c r="D198" s="33" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E198" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="13.8">
+      <c r="D199" s="33" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E199" s="34">
+        <v>3</v>
+      </c>
+      <c r="F199" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="13.8">
+      <c r="D200" s="33" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E200" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="13.8">
+      <c r="D201" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E201" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="13.8">
+      <c r="D202" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E202" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="13.8">
+      <c r="D203" s="33" t="s">
         <v>1046</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E203" s="34">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
-      <c r="D9" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E9" s="3">
+    <row r="204" spans="1:6" ht="13.8">
+      <c r="D204" s="33" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E204" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="13.8">
+      <c r="D205" s="33" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E205" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="13.8">
+      <c r="E206" s="32"/>
+    </row>
+    <row r="207" spans="1:6" ht="13.8">
+      <c r="A207" s="33">
+        <v>12</v>
+      </c>
+      <c r="B207" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C207" s="33" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D207" s="33" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E207" s="34">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="13.8">
+      <c r="D208" s="33" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E208" s="34">
+        <v>2.7</v>
+      </c>
+      <c r="F208" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="13.8">
+      <c r="D209" s="33" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E209" s="34">
+        <v>2</v>
+      </c>
+      <c r="F209" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="13.8">
+      <c r="D210" s="33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E210" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="13.8">
+      <c r="D211" s="33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E211" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="13.8">
+      <c r="D212" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E212" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="13.8">
+      <c r="D213" s="33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E213" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="13.8">
+      <c r="D214" s="33" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E214" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="13.8">
+      <c r="D215" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E215" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="13.8">
+      <c r="E216" s="32"/>
+    </row>
+    <row r="217" spans="1:6" ht="13.8">
+      <c r="A217" s="33">
+        <v>13</v>
+      </c>
+      <c r="B217" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C217" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D217" s="33" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E217" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="13.8">
+      <c r="D218" s="33" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E218" s="34" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="13.8">
+      <c r="D219" s="33" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E219" s="34" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F219" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="13.8">
+      <c r="D220" s="33" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E220" s="34" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F220" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="13.8">
+      <c r="D221" s="33" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E221" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="13.8">
+      <c r="D222" s="33" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E222" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="13.8">
+      <c r="D223" s="33" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E223" s="34" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="13.8">
+      <c r="D224" s="33" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E224" s="34" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F224" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="13.8">
+      <c r="D225" s="33" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E225" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="F225" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="13.8">
+      <c r="D226" s="33" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E226" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="13.8">
+      <c r="D227" s="33" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E227" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="13.8">
+      <c r="D228" s="33" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E228" s="34" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="13.8">
+      <c r="D229" s="33" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E229" s="34" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="13.8">
+      <c r="D230" s="33" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E230" s="34" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="13.8">
+      <c r="D231" s="33" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E231" s="34" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="13.8">
+      <c r="D232" s="33" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E232" s="34" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="13.8">
+      <c r="D233" s="33" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E233" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="13.8">
+      <c r="D234" s="33" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E234" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="13.8">
+      <c r="D235" s="33" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E235" s="34">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
-      <c r="D10" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.8">
-      <c r="D11" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E11" s="3">
+    <row r="236" spans="1:6" ht="13.8">
+      <c r="D236" s="33" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E236" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="13.8">
+      <c r="E237" s="32"/>
+    </row>
+    <row r="238" spans="1:6" ht="13.8">
+      <c r="A238" s="33">
+        <v>14</v>
+      </c>
+      <c r="B238" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C238" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D238" s="33" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E238" s="34">
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
-      <c r="D12" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.8">
-      <c r="D13" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.8">
-      <c r="D14" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.8">
-      <c r="D15" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E15" s="3">
+    <row r="239" spans="1:6" ht="13.8">
+      <c r="D239" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="E239" s="34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="13.8">
+      <c r="D240" s="33" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E240" s="34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="241" spans="4:5" ht="13.8">
+      <c r="D241" s="33" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E241" s="34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="242" spans="4:5" ht="13.8">
+      <c r="D242" s="33" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E242" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="243" spans="4:5" ht="13.8">
+      <c r="D243" s="33" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E243" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="244" spans="4:5" ht="13.8">
+      <c r="D244" s="33" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E244" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
-      <c r="D16" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.8">
-      <c r="D17" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E17" s="3">
+    <row r="245" spans="4:5" ht="13.8">
+      <c r="D245" s="33" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E245" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="246" spans="4:5" ht="13.8">
+      <c r="D246" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E246" s="34">
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.8">
-      <c r="D18" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.8">
-      <c r="D19" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.8">
-      <c r="D20" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.8">
-      <c r="D21" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13.8">
-      <c r="D22" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13.8">
-      <c r="D23" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13.8">
-      <c r="D24" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="13.8">
-      <c r="D25" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="13.8">
-      <c r="D26" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="13.8">
-      <c r="D27" s="2" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="13.8">
-      <c r="D28" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="13.8">
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="13.8">
-      <c r="A30" s="2">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="13.8">
-      <c r="D31" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="13.8">
-      <c r="D32" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" ht="13.8">
-      <c r="D33" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" ht="13.8">
-      <c r="D34" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" ht="13.8">
-      <c r="D35" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" ht="13.8">
-      <c r="D36" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" ht="13.8">
-      <c r="D37" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" ht="13.8">
-      <c r="D38" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" ht="13.8">
-      <c r="D39" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" ht="13.8">
-      <c r="D40" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" ht="13.8">
-      <c r="D41" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" ht="13.8">
-      <c r="D42" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" ht="13.8">
-      <c r="D43" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" ht="13.8">
-      <c r="D44" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" ht="13.8">
-      <c r="D45" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" ht="13.8">
-      <c r="D46" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" ht="13.8">
-      <c r="D47" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" ht="13.8">
-      <c r="D48" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" ht="13.8">
-      <c r="D49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="13.8">
-      <c r="D50" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" ht="13.8">
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" ht="13.8">
-      <c r="A52" s="2">
-        <v>3</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="13.8">
-      <c r="D53" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E53" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="13.8">
-      <c r="D54" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="13.8">
-      <c r="D55" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E55" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="13.8">
-      <c r="D56" s="2" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E56" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="13.8">
-      <c r="D57" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E57" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="13.8">
-      <c r="D58" s="2" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="13.8">
-      <c r="D59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="13.8">
-      <c r="D60" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="13.8">
-      <c r="D61" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E61" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="13.8">
-      <c r="D62" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="13.8">
-      <c r="D63" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E63" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="13.8">
-      <c r="D64" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="E64" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="13.8">
-      <c r="D65" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E65" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="13.8">
-      <c r="D66" s="2" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="13.8">
-      <c r="D67" s="2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E67" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="13.8">
-      <c r="D68" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="E68" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="13.8">
-      <c r="D69" s="2" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E69" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="13.8">
-      <c r="D70" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E70" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="13.8">
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.8">
-      <c r="A72" s="2">
-        <v>4</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E72" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="13.8">
-      <c r="D73" s="2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E73" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="13.8">
-      <c r="D74" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E74" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="13.8">
-      <c r="D75" s="2" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E75" s="3">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="13.8">
-      <c r="D76" s="2" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E76" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="13.8">
-      <c r="D77" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E77" s="3">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="13.8">
-      <c r="D78" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E78" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="13.8">
-      <c r="D79" s="2" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E79" s="3">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="13.8">
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.8">
-      <c r="A81" s="2">
-        <v>5</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E81" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="13.8">
-      <c r="D82" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="E82" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="13.8">
-      <c r="D83" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="13.8">
-      <c r="D84" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E84" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="13.8">
-      <c r="D85" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E85" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="13.8">
-      <c r="D86" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E86" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="13.8">
-      <c r="D87" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E87" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="13.8">
-      <c r="D88" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E88" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="13.8">
-      <c r="D89" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E89" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="13.8">
-      <c r="D90" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E90" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="13.8">
-      <c r="D91" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E91" s="3">
+    </row>
+    <row r="247" spans="4:5" ht="13.8">
+      <c r="D247" s="33" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E247" s="34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="248" spans="4:5" ht="13.8">
+      <c r="D248" s="33" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E248" s="34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="249" spans="4:5" ht="13.8">
+      <c r="D249" s="33" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E249" s="34">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="13.8">
-      <c r="D92" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E92" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="13.8">
-      <c r="D93" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E93" s="3">
-        <v>3</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="13.8">
-      <c r="D94" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E94" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="13.8">
-      <c r="D95" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="E95" s="3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="13.8">
-      <c r="D96" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E96" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="13.8">
-      <c r="D97" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E97" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="13.8">
-      <c r="D98" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E98" s="3">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="13.8">
-      <c r="D99" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E99" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="13.8">
-      <c r="D100" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="13.8">
-      <c r="D101" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="13.8">
-      <c r="D102" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="13.8">
-      <c r="D103" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E103" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="13.8">
-      <c r="D104" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E104" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="13.8">
-      <c r="D105" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E105" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="13.8">
-      <c r="D106" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E106" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="13.8">
-      <c r="D107" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E107" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="13.8">
-      <c r="D108" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="E108" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="13.8">
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" ht="13.8">
-      <c r="A110" s="2">
-        <v>6</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E110" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="13.8">
-      <c r="D111" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E111" s="3">
-        <v>5</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="13.8">
-      <c r="D112" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E112" s="3">
-        <v>6</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="13.8">
-      <c r="D113" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E113" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="13.8">
-      <c r="D114" s="2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E114" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="13.8">
-      <c r="D115" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E115" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="13.8">
-      <c r="D116" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E116" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="13.8">
-      <c r="D117" s="2" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E117" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="13.8">
-      <c r="D118" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E118" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="13.8">
-      <c r="D119" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E119" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:7" ht="13.8">
-      <c r="D120" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E120" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="13.8">
-      <c r="D121" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E121" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="13.8">
-      <c r="D122" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E122" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="13.8">
-      <c r="D123" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E123" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="13.8">
-      <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" ht="13.8">
-      <c r="A125" s="2">
-        <v>7</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E125" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="13.8">
-      <c r="D126" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E126" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="13.8">
-      <c r="D127" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E127" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="13.8">
-      <c r="D128" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E128" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="13.8">
-      <c r="D129" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E129" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="13.8">
-      <c r="D130" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E130" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="13.8">
-      <c r="D131" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E131" s="3">
-        <v>1</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="13.8">
-      <c r="D132" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E132" s="3">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="13.8">
-      <c r="D133" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E133" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="13.8">
-      <c r="D134" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E134" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="13.8">
-      <c r="D135" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E135" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="13.8">
-      <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="1:6" ht="13.8">
-      <c r="A137" s="2">
-        <v>8</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E137" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="13.8">
-      <c r="D138" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E138" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="13.8">
-      <c r="D139" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E139" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="13.8">
-      <c r="D140" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E140" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="13.8">
-      <c r="D141" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E141" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="13.8">
-      <c r="D142" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E142" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="13.8">
-      <c r="D143" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E143" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="13.8">
-      <c r="D144" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E144" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="13.8">
-      <c r="D145" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E145" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="13.8">
-      <c r="D146" s="2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E146" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="13.8">
-      <c r="D147" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E147" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="13.8">
-      <c r="D148" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E148" s="3">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="13.8">
-      <c r="D149" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E149" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="13.8">
-      <c r="D150" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E150" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="13.8">
-      <c r="D151" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E151" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="13.8">
-      <c r="E152" s="1"/>
-    </row>
-    <row r="153" spans="1:6" ht="13.8">
-      <c r="A153" s="2">
-        <v>9</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E153" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="13.8">
-      <c r="D154" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E154" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="13.8">
-      <c r="D155" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E155" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="13.8">
-      <c r="D156" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E156" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="13.8">
-      <c r="D157" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E157" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="13.8">
-      <c r="D158" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E158" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="13.8">
-      <c r="D159" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E159" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="13.8">
-      <c r="D160" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E160" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="161" spans="4:6" ht="13.8">
-      <c r="D161" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E161" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="162" spans="4:6" ht="13.8">
-      <c r="D162" s="2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E162" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="163" spans="4:6" ht="13.8">
-      <c r="D163" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E163" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="164" spans="4:6" ht="13.8">
-      <c r="D164" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E164" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="165" spans="4:6" ht="13.8">
-      <c r="D165" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E165" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="166" spans="4:6" ht="13.8">
-      <c r="D166" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E166" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="167" spans="4:6" ht="13.8">
-      <c r="D167" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E167" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="168" spans="4:6" ht="13.8">
-      <c r="D168" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E168" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="169" spans="4:6" ht="13.8">
-      <c r="D169" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E169" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="170" spans="4:6" ht="13.8">
-      <c r="D170" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E170" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="171" spans="4:6" ht="13.8">
-      <c r="D171" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E171" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="172" spans="4:6" ht="13.8">
-      <c r="D172" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E172" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="173" spans="4:6" ht="13.8">
-      <c r="D173" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E173" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="174" spans="4:6" ht="13.8">
-      <c r="D174" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E174" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="175" spans="4:6" ht="13.8">
-      <c r="D175" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E175" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="176" spans="4:6" ht="13.8">
-      <c r="D176" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E176" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="13.8">
-      <c r="E177" s="1"/>
-    </row>
-    <row r="178" spans="1:6" ht="13.8">
-      <c r="A178" s="2">
-        <v>10</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E178" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="13.8">
-      <c r="D179" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E179" s="3">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="13.8">
-      <c r="D180" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E180" s="3">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="13.8">
-      <c r="D181" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E181" s="3">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="13.8">
-      <c r="D182" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E182" s="3">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="13.8">
-      <c r="D183" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E183" s="3">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="13.8">
-      <c r="D184" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="13.8">
-      <c r="D185" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E185" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="13.8">
-      <c r="D186" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="13.8">
-      <c r="D187" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E187" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="13.8">
-      <c r="D188" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E188" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="13.8">
-      <c r="D189" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E189" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="13.8">
-      <c r="D190" s="2" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E190" s="3">
-        <v>1</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="13.8">
-      <c r="D191" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E191" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="13.8">
-      <c r="D192" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E192" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="13.8">
-      <c r="E193" s="1"/>
-    </row>
-    <row r="194" spans="1:6" ht="13.8">
-      <c r="A194" s="2">
-        <v>11</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E194" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="13.8">
-      <c r="D195" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E195" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="13.8">
-      <c r="D196" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E196" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="13.8">
-      <c r="D197" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E197" s="3">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="13.8">
-      <c r="D198" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E198" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="13.8">
-      <c r="D199" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E199" s="3">
-        <v>3</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="13.8">
-      <c r="D200" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E200" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="13.8">
-      <c r="D201" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E201" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="13.8">
-      <c r="D202" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E202" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="13.8">
-      <c r="D203" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E203" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="13.8">
-      <c r="D204" s="2" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E204" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="13.8">
-      <c r="D205" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E205" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="13.8">
-      <c r="E206" s="1"/>
-    </row>
-    <row r="207" spans="1:6" ht="13.8">
-      <c r="A207" s="2">
-        <v>12</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E207" s="3">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="13.8">
-      <c r="D208" s="2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E208" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="13.8">
-      <c r="D209" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E209" s="3">
-        <v>2</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="13.8">
-      <c r="D210" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E210" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="13.8">
-      <c r="D211" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E211" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="13.8">
-      <c r="D212" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E212" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="13.8">
-      <c r="D213" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E213" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="13.8">
-      <c r="D214" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E214" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="13.8">
-      <c r="D215" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E215" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="13.8">
-      <c r="E216" s="1"/>
-    </row>
-    <row r="217" spans="1:6" ht="13.8">
-      <c r="A217" s="2">
-        <v>13</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E217" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="13.8">
-      <c r="D218" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="13.8">
-      <c r="D219" s="2" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="13.8">
-      <c r="D220" s="2" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="13.8">
-      <c r="D221" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E221" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="13.8">
-      <c r="D222" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E222" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="13.8">
-      <c r="D223" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="13.8">
-      <c r="D224" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="13.8">
-      <c r="D225" s="2" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E225" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="13.8">
-      <c r="D226" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E226" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="13.8">
-      <c r="D227" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E227" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="13.8">
-      <c r="D228" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="13.8">
-      <c r="D229" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="13.8">
-      <c r="D230" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="13.8">
-      <c r="D231" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="13.8">
-      <c r="D232" s="2" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="13.8">
-      <c r="D233" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E233" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="13.8">
-      <c r="D234" s="2" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E234" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="13.8">
-      <c r="D235" s="2" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E235" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="13.8">
-      <c r="D236" s="2" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E236" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="13.8">
-      <c r="E237" s="1"/>
-    </row>
-    <row r="238" spans="1:6" ht="13.8">
-      <c r="A238" s="2">
-        <v>14</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E238" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="13.8">
-      <c r="D239" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E239" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="13.8">
-      <c r="D240" s="2" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E240" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="241" spans="4:5" ht="13.8">
-      <c r="D241" s="2" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E241" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="242" spans="4:5" ht="13.8">
-      <c r="D242" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E242" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="243" spans="4:5" ht="13.8">
-      <c r="D243" s="2" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E243" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="244" spans="4:5" ht="13.8">
-      <c r="D244" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E244" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="4:5" ht="13.8">
-      <c r="D245" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E245" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="246" spans="4:5" ht="13.8">
-      <c r="D246" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E246" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="4:5" ht="13.8">
-      <c r="D247" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E247" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="248" spans="4:5" ht="13.8">
-      <c r="D248" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E248" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="249" spans="4:5" ht="13.8">
-      <c r="D249" s="2" t="s">
+    <row r="250" spans="4:5" ht="13.8">
+      <c r="D250" s="33" t="s">
         <v>1258</v>
       </c>
-      <c r="E249" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="250" spans="4:5" ht="13.8">
-      <c r="D250" s="2" t="s">
+      <c r="E250" s="32"/>
+    </row>
+    <row r="251" spans="4:5" ht="13.8">
+      <c r="D251" s="33" t="s">
         <v>1259</v>
       </c>
-      <c r="E250" s="1"/>
-    </row>
-    <row r="251" spans="4:5" ht="13.8">
-      <c r="D251" s="2" t="s">
+      <c r="E251" s="32"/>
+    </row>
+    <row r="252" spans="4:5" ht="13.8">
+      <c r="D252" s="33" t="s">
         <v>1260</v>
       </c>
-      <c r="E251" s="1"/>
-    </row>
-    <row r="252" spans="4:5" ht="13.8">
-      <c r="D252" s="2" t="s">
+      <c r="E252" s="32"/>
+    </row>
+    <row r="253" spans="4:5" ht="13.8">
+      <c r="D253" s="33" t="s">
         <v>1261</v>
       </c>
-      <c r="E252" s="1"/>
-    </row>
-    <row r="253" spans="4:5" ht="13.8">
-      <c r="D253" s="2" t="s">
+      <c r="E253" s="32"/>
+    </row>
+    <row r="254" spans="4:5" ht="13.8">
+      <c r="D254" s="33" t="s">
         <v>1262</v>
       </c>
-      <c r="E253" s="1"/>
-    </row>
-    <row r="254" spans="4:5" ht="13.8">
-      <c r="D254" s="2" t="s">
+      <c r="E254" s="32"/>
+    </row>
+    <row r="255" spans="4:5" ht="13.8">
+      <c r="D255" s="33" t="s">
         <v>1263</v>
       </c>
-      <c r="E254" s="1"/>
-    </row>
-    <row r="255" spans="4:5" ht="13.8">
-      <c r="D255" s="2" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E255" s="1"/>
+      <c r="E255" s="32"/>
     </row>
     <row r="1048576" ht="15.75" customHeight="1"/>
   </sheetData>
@@ -8491,7 +8039,7 @@
     </row>
     <row r="5" spans="1:6" ht="13.8">
       <c r="D5" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E5" s="3">
         <v>3.5</v>
@@ -8499,7 +8047,7 @@
     </row>
     <row r="6" spans="1:6" ht="13.8">
       <c r="D6" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -8507,7 +8055,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.8">
       <c r="D7" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E7" s="3">
         <v>3.3</v>
@@ -8515,7 +8063,7 @@
     </row>
     <row r="8" spans="1:6" ht="13.8">
       <c r="D8" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -8523,7 +8071,7 @@
     </row>
     <row r="9" spans="1:6" ht="13.8">
       <c r="D9" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E9" s="3">
         <v>2.5</v>
@@ -8537,34 +8085,34 @@
         <v>3.3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.8">
       <c r="D11" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.8">
       <c r="D12" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E12" s="3">
         <v>2.5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.8">
       <c r="D13" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E13" s="3">
         <v>0.6</v>
@@ -8572,13 +8120,13 @@
     </row>
     <row r="14" spans="1:6" ht="13.8">
       <c r="D14" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E14" s="3">
         <v>0.5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.8">
@@ -8589,12 +8137,12 @@
         <v>0.5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.8">
       <c r="D16" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E16" s="3">
         <v>14</v>
@@ -8602,7 +8150,7 @@
     </row>
     <row r="17" spans="1:6" ht="13.8">
       <c r="D17" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E17" s="3">
         <v>26</v>
@@ -8627,7 +8175,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E20" s="3">
         <v>2.2000000000000002</v>
@@ -8635,18 +8183,18 @@
     </row>
     <row r="21" spans="1:6" ht="13.8">
       <c r="D21" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E21" s="3">
         <v>1.8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.8">
       <c r="D22" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E22" s="3">
         <v>3.8</v>
@@ -8662,7 +8210,7 @@
     </row>
     <row r="24" spans="1:6" ht="13.8">
       <c r="D24" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E24" s="3">
         <v>3.2</v>
@@ -8670,7 +8218,7 @@
     </row>
     <row r="25" spans="1:6" ht="13.8">
       <c r="D25" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E25" s="3">
         <v>1.5</v>
@@ -8678,7 +8226,7 @@
     </row>
     <row r="26" spans="1:6" ht="13.8">
       <c r="D26" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E26" s="3">
         <v>2.5</v>
@@ -8694,7 +8242,7 @@
     </row>
     <row r="28" spans="1:6" ht="13.8">
       <c r="D28" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E28" s="3">
         <v>4.5</v>
@@ -8702,7 +8250,7 @@
     </row>
     <row r="29" spans="1:6" ht="13.8">
       <c r="D29" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E29" s="3">
         <v>4.5</v>
@@ -8710,7 +8258,7 @@
     </row>
     <row r="30" spans="1:6" ht="13.8">
       <c r="D30" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E30" s="3">
         <v>4</v>
@@ -8718,7 +8266,7 @@
     </row>
     <row r="31" spans="1:6" ht="13.8">
       <c r="D31" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E31" s="3">
         <v>4</v>
@@ -8726,19 +8274,19 @@
     </row>
     <row r="32" spans="1:6" ht="13.8">
       <c r="D32" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="13.8">
       <c r="D33" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="13.8">
       <c r="D34" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -8746,19 +8294,19 @@
     </row>
     <row r="35" spans="1:7" ht="13.8">
       <c r="D35" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="13.8">
       <c r="D36" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="13.8">
       <c r="D37" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E37" s="3">
         <v>3.5</v>
@@ -8774,7 +8322,7 @@
     </row>
     <row r="39" spans="1:7" ht="13.8">
       <c r="D39" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
@@ -8782,7 +8330,7 @@
     </row>
     <row r="40" spans="1:7" ht="13.8">
       <c r="D40" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -8790,7 +8338,7 @@
     </row>
     <row r="41" spans="1:7" ht="13.8">
       <c r="D41" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E41" s="3">
         <v>2.5</v>
@@ -8808,10 +8356,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>1294</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>1295</v>
       </c>
       <c r="E43" s="3">
         <v>0.8</v>
@@ -8819,7 +8367,7 @@
     </row>
     <row r="44" spans="1:7" ht="13.8">
       <c r="D44" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E44" s="3">
         <v>1.2</v>
@@ -8827,7 +8375,7 @@
     </row>
     <row r="45" spans="1:7" ht="13.8">
       <c r="D45" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E45" s="3">
         <v>1.5</v>
@@ -8835,7 +8383,7 @@
     </row>
     <row r="46" spans="1:7" ht="13.8">
       <c r="D46" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E46" s="3">
         <v>1.5</v>
@@ -8843,7 +8391,7 @@
     </row>
     <row r="47" spans="1:7" ht="13.8">
       <c r="D47" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E47" s="3">
         <v>3.5</v>
@@ -8851,7 +8399,7 @@
     </row>
     <row r="48" spans="1:7" ht="13.8">
       <c r="D48" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E48" s="3">
         <v>1.8</v>
@@ -8859,7 +8407,7 @@
     </row>
     <row r="49" spans="1:5" ht="13.8">
       <c r="D49" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E49" s="3">
         <v>3.5</v>
@@ -8867,7 +8415,7 @@
     </row>
     <row r="50" spans="1:5" ht="13.8">
       <c r="D50" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E50" s="3">
         <v>4.5</v>
@@ -8875,7 +8423,7 @@
     </row>
     <row r="51" spans="1:5" ht="13.8">
       <c r="D51" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E51" s="3">
         <v>5</v>
@@ -8883,7 +8431,7 @@
     </row>
     <row r="52" spans="1:5" ht="13.8">
       <c r="D52" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -8891,7 +8439,7 @@
     </row>
     <row r="53" spans="1:5" ht="13.8">
       <c r="D53" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E53" s="3">
         <v>0.5</v>
@@ -8899,7 +8447,7 @@
     </row>
     <row r="54" spans="1:5" ht="13.8">
       <c r="D54" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E54" s="3">
         <v>4.5</v>
@@ -8907,7 +8455,7 @@
     </row>
     <row r="55" spans="1:5" ht="13.8">
       <c r="D55" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E55" s="3">
         <v>5.5</v>
@@ -8925,10 +8473,10 @@
         <v>16</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>1308</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>1309</v>
       </c>
       <c r="E57" s="3">
         <v>3.5</v>
@@ -8937,7 +8485,7 @@
     <row r="58" spans="1:5" ht="13.8">
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E58" s="3">
         <v>3.5</v>
@@ -8953,7 +8501,7 @@
     </row>
     <row r="60" spans="1:5" ht="13.8">
       <c r="D60" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E60" s="3">
         <v>4</v>
@@ -8961,7 +8509,7 @@
     </row>
     <row r="61" spans="1:5" ht="13.8">
       <c r="D61" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E61" s="3">
         <v>4</v>
@@ -8969,7 +8517,7 @@
     </row>
     <row r="62" spans="1:5" ht="13.8">
       <c r="D62" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E62" s="3">
         <v>4.5</v>
@@ -8977,7 +8525,7 @@
     </row>
     <row r="63" spans="1:5" ht="13.8">
       <c r="D63" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E63" s="3">
         <v>4</v>
@@ -8985,7 +8533,7 @@
     </row>
     <row r="64" spans="1:5" ht="13.8">
       <c r="D64" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E64" s="3">
         <v>4</v>
@@ -8993,7 +8541,7 @@
     </row>
     <row r="65" spans="4:5" ht="13.8">
       <c r="D65" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E65" s="3">
         <v>4.5</v>
@@ -9001,7 +8549,7 @@
     </row>
     <row r="66" spans="4:5" ht="13.8">
       <c r="D66" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E66" s="3">
         <v>4.5</v>
@@ -9009,7 +8557,7 @@
     </row>
     <row r="67" spans="4:5" ht="13.8">
       <c r="D67" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E67" s="3">
         <v>4.5</v>
@@ -9017,7 +8565,7 @@
     </row>
     <row r="68" spans="4:5" ht="13.8">
       <c r="D68" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E68" s="3">
         <v>4.5</v>
@@ -9025,7 +8573,7 @@
     </row>
     <row r="69" spans="4:5" ht="13.8">
       <c r="D69" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E69" s="3">
         <v>4.5</v>
@@ -9033,7 +8581,7 @@
     </row>
     <row r="70" spans="4:5" ht="13.8">
       <c r="D70" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E70" s="3">
         <v>4.5</v>
@@ -9041,7 +8589,7 @@
     </row>
     <row r="71" spans="4:5" ht="13.8">
       <c r="D71" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E71" s="3">
         <v>4.5</v>
@@ -9057,7 +8605,7 @@
     </row>
     <row r="73" spans="4:5" ht="13.8">
       <c r="D73" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E73" s="3">
         <v>4.5</v>
@@ -9065,7 +8613,7 @@
     </row>
     <row r="74" spans="4:5" ht="13.8">
       <c r="D74" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E74" s="3">
         <v>4.5</v>
@@ -9073,7 +8621,7 @@
     </row>
     <row r="75" spans="4:5" ht="13.8">
       <c r="D75" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E75" s="3">
         <v>4.5</v>
@@ -9081,7 +8629,7 @@
     </row>
     <row r="76" spans="4:5" ht="13.8">
       <c r="D76" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E76" s="3">
         <v>4.5</v>
@@ -9089,7 +8637,7 @@
     </row>
     <row r="77" spans="4:5" ht="13.8">
       <c r="D77" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E77" s="3">
         <v>5</v>
@@ -9097,7 +8645,7 @@
     </row>
     <row r="78" spans="4:5" ht="13.8">
       <c r="D78" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E78" s="3">
         <v>5</v>
@@ -9105,7 +8653,7 @@
     </row>
     <row r="79" spans="4:5" ht="13.8">
       <c r="D79" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E79" s="3">
         <v>5</v>
@@ -9113,7 +8661,7 @@
     </row>
     <row r="80" spans="4:5" ht="13.8">
       <c r="D80" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E80" s="3">
         <v>5</v>
@@ -9121,7 +8669,7 @@
     </row>
     <row r="81" spans="1:5" ht="13.8">
       <c r="D81" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E81" s="3">
         <v>5</v>
@@ -9129,7 +8677,7 @@
     </row>
     <row r="82" spans="1:5" ht="13.8">
       <c r="D82" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E82" s="3">
         <v>5</v>
@@ -9137,7 +8685,7 @@
     </row>
     <row r="83" spans="1:5" ht="13.8">
       <c r="D83" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E83" s="3">
         <v>5</v>
@@ -9145,7 +8693,7 @@
     </row>
     <row r="84" spans="1:5" ht="13.8">
       <c r="D84" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E84" s="3">
         <v>5</v>
@@ -9153,7 +8701,7 @@
     </row>
     <row r="85" spans="1:5" ht="13.8">
       <c r="D85" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E85" s="3">
         <v>5</v>
@@ -9161,7 +8709,7 @@
     </row>
     <row r="86" spans="1:5" ht="13.8">
       <c r="D86" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E86" s="3">
         <v>5</v>
@@ -9169,7 +8717,7 @@
     </row>
     <row r="87" spans="1:5" ht="13.8">
       <c r="D87" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E87" s="3">
         <v>5</v>
@@ -9177,7 +8725,7 @@
     </row>
     <row r="88" spans="1:5" ht="13.8">
       <c r="D88" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E88" s="3">
         <v>0.5</v>
@@ -9185,7 +8733,7 @@
     </row>
     <row r="89" spans="1:5" ht="13.8">
       <c r="D89" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E89" s="3">
         <v>1.5</v>
@@ -9193,7 +8741,7 @@
     </row>
     <row r="90" spans="1:5" ht="13.8">
       <c r="D90" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E90" s="3">
         <v>2</v>
@@ -9201,7 +8749,7 @@
     </row>
     <row r="91" spans="1:5" ht="13.8">
       <c r="D91" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E91" s="3">
         <v>2</v>
@@ -9209,7 +8757,7 @@
     </row>
     <row r="92" spans="1:5" ht="13.8">
       <c r="D92" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E92" s="3">
         <v>2</v>
@@ -9227,10 +8775,10 @@
         <v>16</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>1342</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>1343</v>
       </c>
       <c r="E94" s="3">
         <v>3</v>
@@ -9238,7 +8786,7 @@
     </row>
     <row r="95" spans="1:5" ht="13.8">
       <c r="D95" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E95" s="3">
         <v>3</v>
@@ -9246,7 +8794,7 @@
     </row>
     <row r="96" spans="1:5" ht="13.8">
       <c r="D96" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E96" s="3">
         <v>3.5</v>
@@ -9254,7 +8802,7 @@
     </row>
     <row r="97" spans="4:5" ht="13.8">
       <c r="D97" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E97" s="3">
         <v>4</v>
@@ -9262,7 +8810,7 @@
     </row>
     <row r="98" spans="4:5" ht="13.8">
       <c r="D98" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E98" s="3">
         <v>4</v>
@@ -9270,7 +8818,7 @@
     </row>
     <row r="99" spans="4:5" ht="13.8">
       <c r="D99" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E99" s="3">
         <v>4.5</v>
@@ -9278,7 +8826,7 @@
     </row>
     <row r="100" spans="4:5" ht="13.8">
       <c r="D100" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E100" s="3">
         <v>4.5</v>
@@ -9286,7 +8834,7 @@
     </row>
     <row r="101" spans="4:5" ht="13.8">
       <c r="D101" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E101" s="3">
         <v>3.5</v>
@@ -9294,7 +8842,7 @@
     </row>
     <row r="102" spans="4:5" ht="13.8">
       <c r="D102" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E102" s="3">
         <v>4</v>
@@ -9302,7 +8850,7 @@
     </row>
     <row r="103" spans="4:5" ht="13.8">
       <c r="D103" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E103" s="3">
         <v>4.5</v>
@@ -9310,7 +8858,7 @@
     </row>
     <row r="104" spans="4:5" ht="13.8">
       <c r="D104" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E104" s="3">
         <v>4.5</v>
@@ -9318,7 +8866,7 @@
     </row>
     <row r="105" spans="4:5" ht="13.8">
       <c r="D105" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E105" s="3">
         <v>3.5</v>
@@ -9326,7 +8874,7 @@
     </row>
     <row r="106" spans="4:5" ht="13.8">
       <c r="D106" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E106" s="3">
         <v>0.8</v>
@@ -9334,7 +8882,7 @@
     </row>
     <row r="107" spans="4:5" ht="13.8">
       <c r="D107" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E107" s="3">
         <v>0.8</v>
@@ -9342,7 +8890,7 @@
     </row>
     <row r="108" spans="4:5" ht="13.8">
       <c r="D108" s="7" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E108" s="3">
         <v>0.8</v>
@@ -9350,7 +8898,7 @@
     </row>
     <row r="109" spans="4:5" ht="13.8">
       <c r="D109" s="7" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E109" s="3">
         <v>0.8</v>
@@ -9358,7 +8906,7 @@
     </row>
     <row r="110" spans="4:5" ht="13.8">
       <c r="D110" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E110" s="3">
         <v>0.5</v>
@@ -9366,7 +8914,7 @@
     </row>
     <row r="111" spans="4:5" ht="13.8">
       <c r="D111" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E111" s="3">
         <v>0.5</v>
@@ -9374,7 +8922,7 @@
     </row>
     <row r="112" spans="4:5" ht="13.8">
       <c r="D112" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E112" s="3">
         <v>0.5</v>
@@ -9382,7 +8930,7 @@
     </row>
     <row r="113" spans="1:5" ht="13.8">
       <c r="D113" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E113" s="3">
         <v>1</v>
@@ -9390,7 +8938,7 @@
     </row>
     <row r="114" spans="1:5" ht="13.8">
       <c r="D114" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E114" s="3">
         <v>1</v>
@@ -9408,10 +8956,10 @@
         <v>16</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>1363</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>1364</v>
       </c>
       <c r="E116" s="3">
         <v>3</v>
@@ -9420,7 +8968,7 @@
     <row r="117" spans="1:5" ht="13.8">
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E117" s="3">
         <v>3</v>
@@ -9428,7 +8976,7 @@
     </row>
     <row r="118" spans="1:5" ht="13.8">
       <c r="D118" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E118" s="3">
         <v>3.5</v>
@@ -9436,7 +8984,7 @@
     </row>
     <row r="119" spans="1:5" ht="13.8">
       <c r="D119" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E119" s="3">
         <v>0.5</v>
@@ -9444,7 +8992,7 @@
     </row>
     <row r="120" spans="1:5" ht="13.8">
       <c r="D120" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E120" s="3">
         <v>1</v>
@@ -9452,7 +9000,7 @@
     </row>
     <row r="121" spans="1:5" ht="13.8">
       <c r="D121" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E121" s="3">
         <v>2.9</v>
@@ -9470,10 +9018,10 @@
         <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>1369</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>1370</v>
       </c>
       <c r="E123" s="3">
         <v>4.5</v>
@@ -9482,7 +9030,7 @@
     <row r="124" spans="1:5" ht="13.8">
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E124" s="3">
         <v>4.5</v>
@@ -9491,7 +9039,7 @@
     <row r="125" spans="1:5" ht="13.8">
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E125" s="3">
         <v>4.5</v>
@@ -9499,7 +9047,7 @@
     </row>
     <row r="126" spans="1:5" ht="13.8">
       <c r="D126" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E126" s="3">
         <v>4.5</v>
@@ -9507,7 +9055,7 @@
     </row>
     <row r="127" spans="1:5" ht="13.8">
       <c r="D127" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E127" s="3">
         <v>4.5</v>
@@ -9515,7 +9063,7 @@
     </row>
     <row r="128" spans="1:5" ht="13.8">
       <c r="D128" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E128" s="3">
         <v>4.5</v>
@@ -9523,7 +9071,7 @@
     </row>
     <row r="129" spans="4:5" ht="13.8">
       <c r="D129" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E129" s="3">
         <v>4.5</v>
@@ -9531,7 +9079,7 @@
     </row>
     <row r="130" spans="4:5" ht="13.8">
       <c r="D130" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E130" s="3">
         <v>4.5</v>
@@ -9539,7 +9087,7 @@
     </row>
     <row r="131" spans="4:5" ht="13.8">
       <c r="D131" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E131" s="3">
         <v>4.5</v>
@@ -9547,7 +9095,7 @@
     </row>
     <row r="132" spans="4:5" ht="13.8">
       <c r="D132" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E132" s="3">
         <v>4.5</v>
@@ -9555,7 +9103,7 @@
     </row>
     <row r="133" spans="4:5" ht="13.8">
       <c r="D133" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E133" s="3">
         <v>4.5</v>
@@ -9563,7 +9111,7 @@
     </row>
     <row r="134" spans="4:5" ht="13.8">
       <c r="D134" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E134" s="3">
         <v>4.5</v>
@@ -9571,7 +9119,7 @@
     </row>
     <row r="135" spans="4:5" ht="13.8">
       <c r="D135" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E135" s="3">
         <v>4.5</v>
@@ -9579,7 +9127,7 @@
     </row>
     <row r="136" spans="4:5" ht="13.8">
       <c r="D136" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E136" s="3">
         <v>4.5</v>
@@ -9587,7 +9135,7 @@
     </row>
     <row r="137" spans="4:5" ht="13.8">
       <c r="D137" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E137" s="3">
         <v>4.5</v>
@@ -9595,7 +9143,7 @@
     </row>
     <row r="138" spans="4:5" ht="13.8">
       <c r="D138" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E138" s="3">
         <v>4.5</v>
@@ -9603,7 +9151,7 @@
     </row>
     <row r="139" spans="4:5" ht="13.8">
       <c r="D139" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E139" s="3">
         <v>4.5</v>
@@ -9611,7 +9159,7 @@
     </row>
     <row r="140" spans="4:5" ht="13.8">
       <c r="D140" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E140" s="3">
         <v>4.5</v>
@@ -9619,7 +9167,7 @@
     </row>
     <row r="141" spans="4:5" ht="13.8">
       <c r="D141" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E141" s="3">
         <v>4.5</v>
@@ -9627,7 +9175,7 @@
     </row>
     <row r="142" spans="4:5" ht="13.8">
       <c r="D142" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E142" s="3">
         <v>4.5</v>
@@ -9635,7 +9183,7 @@
     </row>
     <row r="143" spans="4:5" ht="13.8">
       <c r="D143" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E143" s="3">
         <v>4.5</v>
@@ -9643,7 +9191,7 @@
     </row>
     <row r="144" spans="4:5" ht="13.8">
       <c r="D144" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E144" s="3">
         <v>4.5</v>
@@ -9651,13 +9199,13 @@
     </row>
     <row r="145" spans="4:5" ht="13.8">
       <c r="D145" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E145" s="1"/>
     </row>
     <row r="146" spans="4:5" ht="13.8">
       <c r="D146" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E146" s="3">
         <v>3.5</v>
@@ -9665,7 +9213,7 @@
     </row>
     <row r="147" spans="4:5" ht="13.8">
       <c r="D147" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E147" s="3">
         <v>3.5</v>
@@ -9673,7 +9221,7 @@
     </row>
     <row r="148" spans="4:5" ht="13.8">
       <c r="D148" s="2" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E148" s="3">
         <v>0.7</v>
@@ -9681,7 +9229,7 @@
     </row>
     <row r="149" spans="4:5" ht="13.8">
       <c r="D149" s="2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E149" s="3">
         <v>2</v>
@@ -9689,7 +9237,7 @@
     </row>
     <row r="150" spans="4:5" ht="13.8">
       <c r="D150" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E150" s="3">
         <v>1.5</v>
@@ -9697,7 +9245,7 @@
     </row>
     <row r="151" spans="4:5" ht="13.8">
       <c r="D151" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E151" s="3">
         <v>4.5</v>
@@ -9705,7 +9253,7 @@
     </row>
     <row r="152" spans="4:5" ht="13.8">
       <c r="D152" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E152" s="3">
         <v>4.5</v>
@@ -9713,7 +9261,7 @@
     </row>
     <row r="153" spans="4:5" ht="13.8">
       <c r="D153" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E153" s="3">
         <v>4.5</v>
@@ -9721,7 +9269,7 @@
     </row>
     <row r="154" spans="4:5" ht="13.8">
       <c r="D154" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E154" s="3">
         <v>2.5</v>
@@ -9729,7 +9277,7 @@
     </row>
     <row r="155" spans="4:5" ht="13.8">
       <c r="D155" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E155" s="3">
         <v>2.5</v>
@@ -9737,7 +9285,7 @@
     </row>
     <row r="156" spans="4:5" ht="13.8">
       <c r="D156" s="2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E156" s="3">
         <v>2.5</v>
@@ -9745,7 +9293,7 @@
     </row>
     <row r="157" spans="4:5" ht="13.8">
       <c r="D157" s="2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E157" s="3">
         <v>2.5</v>
@@ -9753,7 +9301,7 @@
     </row>
     <row r="158" spans="4:5" ht="13.8">
       <c r="D158" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E158" s="3">
         <v>2.5</v>
@@ -9761,7 +9309,7 @@
     </row>
     <row r="159" spans="4:5" ht="13.8">
       <c r="D159" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E159" s="3">
         <v>2.5</v>
@@ -9769,7 +9317,7 @@
     </row>
     <row r="160" spans="4:5" ht="13.8">
       <c r="D160" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E160" s="3">
         <v>2.5</v>
@@ -9777,7 +9325,7 @@
     </row>
     <row r="161" spans="1:5" ht="13.8">
       <c r="D161" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E161" s="3">
         <v>5</v>
@@ -9785,7 +9333,7 @@
     </row>
     <row r="162" spans="1:5" ht="13.8">
       <c r="D162" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E162" s="3">
         <v>5</v>
@@ -9793,7 +9341,7 @@
     </row>
     <row r="163" spans="1:5" ht="13.8">
       <c r="D163" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E163" s="3">
         <v>5</v>
@@ -9811,17 +9359,17 @@
         <v>16</v>
       </c>
       <c r="C165" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>1409</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>1410</v>
       </c>
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5" ht="13.8">
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E166" s="3">
         <v>0.5</v>
@@ -9829,7 +9377,7 @@
     </row>
     <row r="167" spans="1:5" ht="13.8">
       <c r="D167" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E167" s="3">
         <v>0.5</v>
@@ -9837,7 +9385,7 @@
     </row>
     <row r="168" spans="1:5" ht="13.8">
       <c r="D168" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E168" s="3">
         <v>0.5</v>
@@ -9845,7 +9393,7 @@
     </row>
     <row r="169" spans="1:5" ht="13.8">
       <c r="D169" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E169" s="3">
         <v>0.5</v>
@@ -9853,7 +9401,7 @@
     </row>
     <row r="170" spans="1:5" ht="13.8">
       <c r="D170" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E170" s="3">
         <v>0.5</v>
@@ -9902,10 +9450,10 @@
         <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1415</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1416</v>
       </c>
       <c r="E3" s="3">
         <v>2.5</v>
@@ -9913,7 +9461,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.8">
       <c r="D4" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E4" s="3">
         <v>2.5</v>
@@ -9921,7 +9469,7 @@
     </row>
     <row r="5" spans="1:6" ht="13.8">
       <c r="D5" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E5" s="3">
         <v>3.5</v>
@@ -9929,7 +9477,7 @@
     </row>
     <row r="6" spans="1:6" ht="13.8">
       <c r="D6" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E6" s="3">
         <v>3.5</v>
@@ -9937,7 +9485,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.8">
       <c r="D7" s="2" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E7" s="3">
         <v>3.5</v>
@@ -9945,7 +9493,7 @@
     </row>
     <row r="8" spans="1:6" ht="13.8">
       <c r="D8" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E8" s="3">
         <v>3.5</v>
@@ -9953,7 +9501,7 @@
     </row>
     <row r="9" spans="1:6" ht="13.8">
       <c r="D9" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -9961,7 +9509,7 @@
     </row>
     <row r="10" spans="1:6" ht="13.8">
       <c r="D10" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
@@ -9969,7 +9517,7 @@
     </row>
     <row r="11" spans="1:6" ht="13.8">
       <c r="D11" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
@@ -9977,7 +9525,7 @@
     </row>
     <row r="12" spans="1:6" ht="13.8">
       <c r="D12" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
@@ -9985,7 +9533,7 @@
     </row>
     <row r="13" spans="1:6" ht="13.8">
       <c r="D13" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E13" s="3">
         <v>4.5</v>
@@ -9996,7 +9544,7 @@
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E14" s="3">
         <v>3.5</v>
@@ -10004,7 +9552,7 @@
     </row>
     <row r="15" spans="1:6" ht="13.8">
       <c r="D15" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E15" s="3">
         <v>4</v>
@@ -10012,7 +9560,7 @@
     </row>
     <row r="16" spans="1:6" ht="13.8">
       <c r="D16" s="2" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E16" s="3">
         <v>3.5</v>
@@ -10020,7 +9568,7 @@
     </row>
     <row r="17" spans="1:5" ht="13.8">
       <c r="D17" s="2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
@@ -10028,7 +9576,7 @@
     </row>
     <row r="18" spans="1:5" ht="13.8">
       <c r="D18" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
@@ -10036,7 +9584,7 @@
     </row>
     <row r="19" spans="1:5" ht="13.8">
       <c r="D19" s="2" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E19" s="3">
         <v>4.5</v>
@@ -10044,7 +9592,7 @@
     </row>
     <row r="20" spans="1:5" ht="13.8">
       <c r="D20" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E20" s="3">
         <v>3.5</v>
@@ -10062,7 +9610,7 @@
         <v>117</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>209</v>
@@ -10081,7 +9629,7 @@
     </row>
     <row r="24" spans="1:5" ht="13.8">
       <c r="D24" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
@@ -10099,10 +9647,10 @@
         <v>117</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>1436</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>1437</v>
       </c>
       <c r="E26" s="3">
         <v>3.5</v>
@@ -10110,7 +9658,7 @@
     </row>
     <row r="27" spans="1:5" ht="13.8">
       <c r="D27" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E27" s="3">
         <v>1.5</v>
@@ -10118,7 +9666,7 @@
     </row>
     <row r="28" spans="1:5" ht="13.8">
       <c r="D28" s="2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E28" s="3">
         <v>1.5</v>
@@ -10126,7 +9674,7 @@
     </row>
     <row r="29" spans="1:5" ht="13.8">
       <c r="D29" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E29" s="3">
         <v>1.5</v>
@@ -10134,7 +9682,7 @@
     </row>
     <row r="30" spans="1:5" ht="13.8">
       <c r="D30" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E30" s="3">
         <v>1.5</v>
@@ -10150,7 +9698,7 @@
     </row>
     <row r="32" spans="1:5" ht="13.8">
       <c r="D32" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E32" s="3">
         <v>1.5</v>
@@ -10160,7 +9708,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E33" s="3">
         <v>1.5</v>
@@ -10180,10 +9728,10 @@
         <v>54</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E35" s="3">
         <v>5.5</v>
@@ -10191,7 +9739,7 @@
     </row>
     <row r="36" spans="1:5" ht="13.8">
       <c r="D36" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E36" s="3">
         <v>5.5</v>
@@ -10199,7 +9747,7 @@
     </row>
     <row r="37" spans="1:5" ht="13.8">
       <c r="D37" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E37" s="3">
         <v>5.5</v>
@@ -10207,7 +9755,7 @@
     </row>
     <row r="38" spans="1:5" ht="13.8">
       <c r="D38" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E38" s="3">
         <v>5.5</v>
@@ -10215,7 +9763,7 @@
     </row>
     <row r="39" spans="1:5" ht="13.8">
       <c r="D39" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E39" s="3">
         <v>5.5</v>
@@ -10233,10 +9781,10 @@
         <v>117</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>1449</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>1450</v>
       </c>
       <c r="E41" s="3">
         <v>3.5</v>
@@ -10244,7 +9792,7 @@
     </row>
     <row r="42" spans="1:5" ht="13.8">
       <c r="D42" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
@@ -10252,7 +9800,7 @@
     </row>
     <row r="43" spans="1:5" ht="13.8">
       <c r="D43" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
@@ -10260,7 +9808,7 @@
     </row>
     <row r="44" spans="1:5" ht="13.8">
       <c r="D44" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -10268,7 +9816,7 @@
     </row>
     <row r="45" spans="1:5" ht="13.8">
       <c r="D45" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E45" s="3">
         <v>4.5</v>
@@ -10286,10 +9834,10 @@
         <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>1455</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>1456</v>
       </c>
       <c r="E47" s="3">
         <v>10</v>
@@ -10297,7 +9845,7 @@
     </row>
     <row r="48" spans="1:5" ht="13.8">
       <c r="D48" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E48" s="3">
         <v>10</v>
@@ -10305,7 +9853,7 @@
     </row>
     <row r="49" spans="4:5" ht="13.8">
       <c r="D49" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E49" s="3">
         <v>6</v>
@@ -10313,7 +9861,7 @@
     </row>
     <row r="50" spans="4:5" ht="13.8">
       <c r="D50" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E50" s="3">
         <v>6</v>
@@ -10321,7 +9869,7 @@
     </row>
     <row r="51" spans="4:5" ht="13.8">
       <c r="D51" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E51" s="3">
         <v>6</v>
@@ -10329,7 +9877,7 @@
     </row>
     <row r="52" spans="4:5" ht="13.8">
       <c r="D52" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E52" s="3">
         <v>6</v>
@@ -10351,543 +9899,543 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="3" width="14.44140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="29.94140625" style="24" customWidth="1"/>
-    <col min="5" max="1025" width="14.44140625" style="24" customWidth="1"/>
-    <col min="1026" max="16384" width="8.88671875" style="24"/>
+    <col min="1" max="3" width="14.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="29.94140625" style="22" customWidth="1"/>
+    <col min="5" max="1025" width="14.44140625" style="22" customWidth="1"/>
+    <col min="1026" max="16384" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="24" customFormat="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:6" s="24" customFormat="1">
-      <c r="B3" s="29" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="27" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>1462</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="23" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>1463</v>
       </c>
-      <c r="D3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="25" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>1511</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="24" customFormat="1">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:6" s="24" customFormat="1">
-      <c r="B5" s="27" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="E5" s="27" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="25" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>1465</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>1512</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="24" customFormat="1">
-      <c r="B6" s="27"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" s="24" customFormat="1">
-      <c r="B7" s="27" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="E7" s="27" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="25"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="25" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>1466</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>1513</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="24" customFormat="1">
-      <c r="B8" s="27"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:6" s="24" customFormat="1">
-      <c r="B9" s="27" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C9" s="29" t="s">
+      <c r="E9" s="27" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="25"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="25" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>1467</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>1514</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="24" customFormat="1">
-      <c r="B10" s="27"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="1:6" s="24" customFormat="1">
-      <c r="B11" s="27" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="E11" s="27" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="25"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="25" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>1468</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D13" s="23" t="s">
         <v>1515</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="24" customFormat="1">
-      <c r="B12" s="27"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" s="24" customFormat="1">
-      <c r="B13" s="27" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="E13" s="27" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="25"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>1469</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>1516</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="24" customFormat="1">
-      <c r="B14" s="27"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" spans="1:6" s="24" customFormat="1">
-      <c r="B15" s="29" t="s">
+      <c r="E15" s="27" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C17" s="27" t="s">
         <v>1470</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D17" s="23" t="s">
         <v>1517</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="24" customFormat="1">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="29"/>
-    </row>
-    <row r="17" spans="2:5" s="24" customFormat="1">
-      <c r="B17" s="29" t="s">
+      <c r="E17" s="27" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>1471</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D19" s="23" t="s">
         <v>1518</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" s="24" customFormat="1">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="2:5" s="24" customFormat="1">
-      <c r="B19" s="29" t="s">
+      <c r="E19" s="27" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="2:5" ht="9.9" customHeight="1">
+      <c r="B21" s="27" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="9.9" customHeight="1">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="27" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="27" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="27" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>1519</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" s="24" customFormat="1">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="29"/>
-    </row>
-    <row r="21" spans="2:5" s="24" customFormat="1" ht="9.9" customHeight="1">
-      <c r="B21" s="29" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" s="24" customFormat="1" ht="9.9" customHeight="1">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="23" spans="2:5" s="24" customFormat="1">
-      <c r="B23" s="29" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>1476</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" s="24" customFormat="1">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" spans="2:5" s="24" customFormat="1">
-      <c r="B25" s="29" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" s="24" customFormat="1">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="2:5" s="24" customFormat="1">
-      <c r="B27" s="29" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C27" s="29" t="s">
+      <c r="C29" s="27" t="s">
         <v>1478</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D29" s="26" t="s">
         <v>1523</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" s="24" customFormat="1">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="2:5" s="24" customFormat="1">
-      <c r="B29" s="29" t="s">
+      <c r="E29" s="27" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E29" s="29" t="s">
+      <c r="C31" s="27" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" s="24" customFormat="1">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="2:5" s="24" customFormat="1">
-      <c r="B31" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="29" t="s">
+      <c r="D31" s="27" t="s">
         <v>1481</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="E31" s="28">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="D32" s="27" t="s">
         <v>1482</v>
       </c>
-      <c r="E31" s="30">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" s="24" customFormat="1">
-      <c r="D32" s="29" t="s">
+      <c r="E32" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="27" t="s">
         <v>1483</v>
       </c>
-      <c r="E32" s="30">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" s="24" customFormat="1">
-      <c r="D33" s="29" t="s">
+      <c r="E33" s="28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="27" t="s">
         <v>1484</v>
       </c>
-      <c r="E33" s="30">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" s="24" customFormat="1">
-      <c r="D34" s="29" t="s">
+      <c r="E34" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="28">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="27" t="s">
         <v>1485</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E36" s="28">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="27" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E37" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="27" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E38" s="28">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="27" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E39" s="28">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="27" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E40" s="28">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="27" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E41" s="28">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="27" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E42" s="28">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" s="27" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E43" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" s="27" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E44" s="28">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="27" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E45" s="28">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="27" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E46" s="28">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" s="27" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E47" s="28">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" s="27" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E48" s="28">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="27" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E49" s="28">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="27" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E50" s="28">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" s="27" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E51" s="28">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="27" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E52" s="28">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" s="27" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E53" s="28">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" s="27" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E54" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="4:5" s="24" customFormat="1">
-      <c r="D35" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="30">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" s="24" customFormat="1">
-      <c r="D36" s="29" t="s">
-        <v>1486</v>
-      </c>
-      <c r="E36" s="30">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" s="24" customFormat="1">
-      <c r="D37" s="29" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E37" s="30">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" s="24" customFormat="1">
-      <c r="D38" s="29" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E38" s="30">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" s="24" customFormat="1">
-      <c r="D39" s="29" t="s">
-        <v>1489</v>
-      </c>
-      <c r="E39" s="30">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" s="24" customFormat="1">
-      <c r="D40" s="29" t="s">
-        <v>1490</v>
-      </c>
-      <c r="E40" s="30">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" s="24" customFormat="1">
-      <c r="D41" s="29" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E41" s="30">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" s="24" customFormat="1">
-      <c r="D42" s="29" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E42" s="30">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" s="24" customFormat="1">
-      <c r="D43" s="29" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E43" s="30">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" s="24" customFormat="1">
-      <c r="D44" s="29" t="s">
-        <v>1494</v>
-      </c>
-      <c r="E44" s="30">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" s="24" customFormat="1">
-      <c r="D45" s="29" t="s">
-        <v>1495</v>
-      </c>
-      <c r="E45" s="30">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" s="24" customFormat="1">
-      <c r="D46" s="29" t="s">
-        <v>1496</v>
-      </c>
-      <c r="E46" s="30">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" s="24" customFormat="1">
-      <c r="D47" s="29" t="s">
-        <v>1497</v>
-      </c>
-      <c r="E47" s="30">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" s="24" customFormat="1">
-      <c r="D48" s="29" t="s">
-        <v>1498</v>
-      </c>
-      <c r="E48" s="30">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" s="24" customFormat="1">
-      <c r="D49" s="29" t="s">
-        <v>1499</v>
-      </c>
-      <c r="E49" s="30">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" s="24" customFormat="1">
-      <c r="D50" s="29" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E50" s="30">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" s="24" customFormat="1">
-      <c r="D51" s="29" t="s">
-        <v>1501</v>
-      </c>
-      <c r="E51" s="30">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" s="24" customFormat="1">
-      <c r="D52" s="29" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E52" s="30">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" s="24" customFormat="1">
-      <c r="D53" s="29" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E53" s="30">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" s="24" customFormat="1">
-      <c r="D54" s="29" t="s">
+    <row r="55" spans="4:5">
+      <c r="D55" s="27" t="s">
         <v>1504</v>
       </c>
-      <c r="E54" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" s="24" customFormat="1">
-      <c r="D55" s="29" t="s">
+      <c r="E55" s="28">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56" s="27" t="s">
         <v>1505</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E56" s="28">
         <v>5.5</v>
       </c>
     </row>
-    <row r="56" spans="4:5" s="24" customFormat="1">
-      <c r="D56" s="29" t="s">
+    <row r="57" spans="4:5">
+      <c r="D57" s="27" t="s">
         <v>1506</v>
       </c>
-      <c r="E56" s="30">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5" s="24" customFormat="1">
-      <c r="D57" s="29" t="s">
+      <c r="E57" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58" s="27" t="s">
         <v>1507</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E58" s="28">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59" s="27" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E59" s="28">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="4:5" s="24" customFormat="1">
-      <c r="D58" s="29" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E58" s="30">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" s="24" customFormat="1">
-      <c r="D59" s="29" t="s">
+    <row r="60" spans="4:5">
+      <c r="D60" s="27" t="s">
         <v>1509</v>
       </c>
-      <c r="E59" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5" s="24" customFormat="1">
-      <c r="D60" s="29" t="s">
-        <v>1510</v>
-      </c>
-      <c r="E60" s="30">
+      <c r="E60" s="28">
         <v>5</v>
       </c>
     </row>
@@ -10901,8 +10449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
@@ -11606,7 +11154,7 @@
       <c r="E78" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G78" s="16"/>
+      <c r="G78" s="30"/>
     </row>
     <row r="79" spans="1:7" ht="13.8">
       <c r="D79" s="2" t="s">
@@ -11615,7 +11163,7 @@
       <c r="E79" s="3">
         <v>2.5</v>
       </c>
-      <c r="G79" s="16"/>
+      <c r="G79" s="30"/>
     </row>
     <row r="80" spans="1:7" ht="13.8">
       <c r="D80" s="2" t="s">
@@ -11624,7 +11172,7 @@
       <c r="E80" s="3">
         <v>2.5</v>
       </c>
-      <c r="G80" s="16"/>
+      <c r="G80" s="30"/>
     </row>
     <row r="81" spans="1:7" ht="13.8">
       <c r="D81" s="2" t="s">
@@ -11633,7 +11181,7 @@
       <c r="E81" s="3">
         <v>2.5</v>
       </c>
-      <c r="G81" s="16"/>
+      <c r="G81" s="30"/>
     </row>
     <row r="82" spans="1:7" ht="13.8">
       <c r="D82" s="2" t="s">
@@ -11642,7 +11190,7 @@
       <c r="E82" s="3">
         <v>2.8</v>
       </c>
-      <c r="G82" s="16"/>
+      <c r="G82" s="30"/>
     </row>
     <row r="83" spans="1:7" ht="13.8">
       <c r="D83" s="2" t="s">
@@ -11654,7 +11202,7 @@
       <c r="F83" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G83" s="16"/>
+      <c r="G83" s="30"/>
     </row>
     <row r="84" spans="1:7" ht="13.8">
       <c r="D84" s="2" t="s">
@@ -11663,7 +11211,7 @@
       <c r="E84" s="3">
         <v>2.8</v>
       </c>
-      <c r="G84" s="16"/>
+      <c r="G84" s="30"/>
     </row>
     <row r="85" spans="1:7" ht="13.8">
       <c r="D85" s="2" t="s">
@@ -11672,7 +11220,7 @@
       <c r="E85" s="3">
         <v>2.8</v>
       </c>
-      <c r="G85" s="16"/>
+      <c r="G85" s="30"/>
     </row>
     <row r="86" spans="1:7" ht="13.8">
       <c r="D86" s="2" t="s">
@@ -11681,7 +11229,7 @@
       <c r="E86" s="3">
         <v>2.8</v>
       </c>
-      <c r="G86" s="16"/>
+      <c r="G86" s="30"/>
     </row>
     <row r="87" spans="1:7" ht="13.8">
       <c r="D87" s="2" t="s">
@@ -11690,11 +11238,11 @@
       <c r="E87" s="3">
         <v>2.8</v>
       </c>
-      <c r="G87" s="16"/>
+      <c r="G87" s="30"/>
     </row>
     <row r="88" spans="1:7" ht="13.8">
       <c r="E88" s="1"/>
-      <c r="G88" s="16"/>
+      <c r="G88" s="30"/>
     </row>
     <row r="89" spans="1:7" ht="13.8">
       <c r="A89" s="2">
@@ -11712,7 +11260,7 @@
       <c r="E89" s="3">
         <v>1.8</v>
       </c>
-      <c r="G89" s="16"/>
+      <c r="G89" s="30"/>
     </row>
     <row r="90" spans="1:7" ht="13.8">
       <c r="D90" s="2" t="s">
@@ -11721,7 +11269,7 @@
       <c r="E90" s="3">
         <v>2</v>
       </c>
-      <c r="G90" s="16"/>
+      <c r="G90" s="30"/>
     </row>
     <row r="91" spans="1:7" ht="13.8">
       <c r="D91" s="2" t="s">
@@ -11733,7 +11281,7 @@
       <c r="F91" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G91" s="16"/>
+      <c r="G91" s="30"/>
     </row>
     <row r="92" spans="1:7" ht="13.8">
       <c r="D92" s="2" t="s">
@@ -11742,7 +11290,7 @@
       <c r="E92" s="3">
         <v>3</v>
       </c>
-      <c r="G92" s="16"/>
+      <c r="G92" s="30"/>
     </row>
     <row r="93" spans="1:7" ht="13.8">
       <c r="D93" s="2" t="s">
@@ -11751,7 +11299,7 @@
       <c r="E93" s="3">
         <v>3</v>
       </c>
-      <c r="G93" s="16"/>
+      <c r="G93" s="30"/>
     </row>
     <row r="94" spans="1:7" ht="13.8">
       <c r="D94" s="2" t="s">
@@ -11760,7 +11308,7 @@
       <c r="E94" s="3">
         <v>3.5</v>
       </c>
-      <c r="G94" s="16"/>
+      <c r="G94" s="30"/>
     </row>
     <row r="95" spans="1:7" ht="13.8">
       <c r="D95" s="2" t="s">
@@ -11769,7 +11317,7 @@
       <c r="E95" s="3">
         <v>3.5</v>
       </c>
-      <c r="G95" s="16"/>
+      <c r="G95" s="30"/>
     </row>
     <row r="96" spans="1:7" ht="13.8">
       <c r="D96" s="2" t="s">
@@ -11778,7 +11326,7 @@
       <c r="E96" s="3">
         <v>3</v>
       </c>
-      <c r="G96" s="16"/>
+      <c r="G96" s="30"/>
     </row>
     <row r="97" spans="1:7" ht="13.8">
       <c r="D97" s="2" t="s">
@@ -11787,7 +11335,7 @@
       <c r="E97" s="3">
         <v>3</v>
       </c>
-      <c r="G97" s="16"/>
+      <c r="G97" s="30"/>
     </row>
     <row r="98" spans="1:7" ht="13.8">
       <c r="E98" s="1"/>
@@ -18332,973 +17880,973 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="1" width="7.71875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="55.27734375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.71875" style="17" customWidth="1"/>
-    <col min="7" max="1025" width="14.44140625" style="17" customWidth="1"/>
-    <col min="1026" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="7.71875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="55.27734375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="16.71875" style="15" customWidth="1"/>
+    <col min="7" max="1025" width="14.44140625" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.8">
-      <c r="E1" s="18"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="13.8">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="13.8">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.8">
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.8">
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>854</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.8">
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>855</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.8">
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.8">
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>856</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.8">
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>857</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.8">
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>858</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.8">
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>859</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.8">
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="18">
         <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.8">
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>860</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.8">
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>861</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>3.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.8">
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.8">
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>863</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>3.5</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="4:6" ht="13.8">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>864</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <v>4</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="13.8">
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>865</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <v>3.5</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="4:6" ht="13.8">
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>866</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="18">
         <v>3.5</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="4:6" ht="13.8">
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>867</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="18">
         <v>3.5</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="21" spans="4:6" ht="13.8">
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>868</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="18">
         <v>3.5</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22" spans="4:6" ht="13.8">
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>869</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="18">
         <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="4:6" ht="13.8">
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>870</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="18">
         <v>3.5</v>
       </c>
     </row>
     <row r="24" spans="4:6" ht="13.8">
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="4:6" ht="13.8">
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>872</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="18">
         <v>3.5</v>
       </c>
     </row>
     <row r="26" spans="4:6" ht="13.8">
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>873</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="13.8">
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>874</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="4:6" ht="13.8">
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="18">
         <v>4.5</v>
       </c>
     </row>
     <row r="29" spans="4:6" ht="13.8">
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>876</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="18">
         <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="4:6" ht="13.8">
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="18">
         <v>4.5</v>
       </c>
     </row>
     <row r="31" spans="4:6" ht="13.8">
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="17" t="s">
         <v>878</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="18">
         <v>4.5</v>
       </c>
     </row>
     <row r="32" spans="4:6" ht="13.8">
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="17" t="s">
         <v>879</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="18">
         <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.8">
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="18">
         <v>4.5</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.8">
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="18">
         <v>4.5</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.8">
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="18">
         <v>4.5</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.8">
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="18">
         <v>4.5</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.8">
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="18">
         <v>3.5</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.8">
-      <c r="E38" s="18"/>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="1:6" ht="13.8">
-      <c r="A39" s="19">
+      <c r="A39" s="17">
         <v>2</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>885</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="18">
         <v>5</v>
       </c>
-      <c r="F39" s="19"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" ht="13.8">
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="17" t="s">
         <v>886</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.8">
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="18">
         <v>5.5</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.8">
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="18">
         <v>6.5</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.8">
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="17" t="s">
         <v>889</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="18">
         <v>6.5</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="27.6">
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="19" t="s">
         <v>890</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="27.6">
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="18">
         <v>8.5</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.8">
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="17" t="s">
         <v>892</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="18">
         <v>7.5</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.8">
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="17" t="s">
         <v>893</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="18">
         <v>7.5</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.8">
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="18">
         <v>6.5</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.8">
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="17" t="s">
         <v>895</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="18">
         <v>6.5</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.8">
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="17" t="s">
         <v>896</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="18">
         <v>2.5</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.8">
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.8">
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="18">
         <v>1</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.8">
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="17" t="s">
         <v>898</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="18">
         <v>1</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="13.8">
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="18">
         <v>0.5</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.8">
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="17" t="s">
         <v>899</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="18">
         <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="13.8">
-      <c r="E56" s="18"/>
+      <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:6" ht="13.8">
-      <c r="A57" s="19">
+      <c r="A57" s="17">
         <v>3</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="18">
         <v>2.6</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="13.8">
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="18">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.8">
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="17" t="s">
         <v>903</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="18">
         <v>2.7</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="F59" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="13.8">
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="17" t="s">
         <v>904</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="18">
         <v>2.6</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="13.8">
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="17" t="s">
         <v>905</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="18">
         <v>3.4</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="13.8">
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="18">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="13.8">
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="17" t="s">
         <v>907</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="18">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="13.8">
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="17" t="s">
         <v>908</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="18">
         <v>4.8</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="13.8">
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="17" t="s">
         <v>909</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="18">
         <v>5.6</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="13.8">
-      <c r="A67" s="19">
+      <c r="A67" s="17">
         <v>4</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="17" t="s">
         <v>910</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="17" t="s">
         <v>911</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="18">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="13.8">
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="17" t="s">
         <v>912</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="18">
         <v>6.8</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="13.8">
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="17" t="s">
         <v>913</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="18">
         <v>3.2</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="13.8">
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="17" t="s">
         <v>914</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="18">
         <v>3.8</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="13.8">
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="17" t="s">
         <v>915</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="13.8">
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="17" t="s">
         <v>916</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E72" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="13.8">
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="17" t="s">
         <v>917</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E73" s="18">
         <v>4.2</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="13.8">
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="17" t="s">
         <v>918</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E74" s="18">
         <v>5.2</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="13.8">
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="17" t="s">
         <v>919</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E75" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="13.8">
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="E76" s="20">
+      <c r="E76" s="18">
         <v>1.2</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="13.8">
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="17" t="s">
         <v>921</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="13.8">
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="17" t="s">
         <v>922</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="13.8">
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E79" s="18">
         <v>3.8</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="13.8">
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="17" t="s">
         <v>923</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="18">
         <v>3.8</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="13.8">
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="17" t="s">
         <v>924</v>
       </c>
-      <c r="E81" s="20">
+      <c r="E81" s="18">
         <v>5</v>
       </c>
-      <c r="F81" s="19" t="s">
+      <c r="F81" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="13.8">
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="17" t="s">
         <v>925</v>
       </c>
-      <c r="E82" s="23">
+      <c r="E82" s="21">
         <v>3.5</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="13.8">
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="17" t="s">
         <v>926</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E83" s="21">
         <v>5.5</v>
       </c>
-      <c r="F83" s="19" t="s">
+      <c r="F83" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="13.8">
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="17" t="s">
         <v>927</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E84" s="18">
         <v>6</v>
       </c>
-      <c r="F84" s="19" t="s">
+      <c r="F84" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13.8">
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="E85" s="23">
+      <c r="E85" s="21">
         <v>4.3</v>
       </c>
-      <c r="F85" s="19" t="s">
+      <c r="F85" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="13.8">
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="17" t="s">
         <v>928</v>
       </c>
-      <c r="E86" s="23">
+      <c r="E86" s="21">
         <v>6</v>
       </c>
-      <c r="F86" s="19" t="s">
+      <c r="F86" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="13.8">
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="18">
         <v>6.8</v>
       </c>
-      <c r="F87" s="19" t="s">
+      <c r="F87" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="13.8">
-      <c r="E88" s="18"/>
+      <c r="E88" s="16"/>
     </row>
     <row r="89" spans="1:6" ht="13.8">
-      <c r="A89" s="19">
+      <c r="A89" s="17">
         <v>5</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="17" t="s">
         <v>929</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="17" t="s">
         <v>930</v>
       </c>
-      <c r="E89" s="20">
+      <c r="E89" s="18">
         <v>2.5</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="13.8">
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="17" t="s">
         <v>931</v>
       </c>
-      <c r="E90" s="20">
+      <c r="E90" s="18">
         <v>4.2</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="13.8">
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="17" t="s">
         <v>932</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="18">
         <v>6.2</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="13.8">
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="17" t="s">
         <v>933</v>
       </c>
-      <c r="E92" s="20">
+      <c r="E92" s="18">
         <v>1.8</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="13.8">
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="17" t="s">
         <v>934</v>
       </c>
-      <c r="E93" s="20">
+      <c r="E93" s="18">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="13.8">
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="17" t="s">
         <v>935</v>
       </c>
-      <c r="E94" s="20">
+      <c r="E94" s="18">
         <v>1.8</v>
       </c>
-      <c r="F94" s="19" t="s">
+      <c r="F94" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="13.8">
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="17" t="s">
         <v>936</v>
       </c>
-      <c r="E95" s="20">
+      <c r="E95" s="18">
         <v>2</v>
       </c>
-      <c r="F95" s="19" t="s">
+      <c r="F95" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="13.8">
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="17" t="s">
         <v>937</v>
       </c>
-      <c r="E96" s="20">
+      <c r="E96" s="18">
         <v>1.8</v>
       </c>
-      <c r="F96" s="19" t="s">
+      <c r="F96" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="97" spans="4:6" ht="13.8">
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="E97" s="20">
+      <c r="E97" s="18">
         <v>3</v>
       </c>
-      <c r="F97" s="19" t="s">
+      <c r="F97" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="98" spans="4:6" ht="13.8">
-      <c r="D98" s="19" t="s">
+      <c r="D98" s="17" t="s">
         <v>939</v>
       </c>
-      <c r="E98" s="20">
+      <c r="E98" s="18">
         <v>3.8</v>
       </c>
     </row>
     <row r="99" spans="4:6" ht="13.8">
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="17" t="s">
         <v>940</v>
       </c>
-      <c r="E99" s="20">
+      <c r="E99" s="18">
         <v>4.8</v>
       </c>
     </row>
     <row r="100" spans="4:6" ht="13.8">
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="17" t="s">
         <v>941</v>
       </c>
-      <c r="E100" s="20">
+      <c r="E100" s="18">
         <v>6.3</v>
       </c>
     </row>
     <row r="101" spans="4:6" ht="13.8">
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="17" t="s">
         <v>942</v>
       </c>
-      <c r="E101" s="20">
+      <c r="E101" s="18">
         <v>7.5</v>
       </c>
     </row>
     <row r="102" spans="4:6" ht="13.8">
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="17" t="s">
         <v>943</v>
       </c>
-      <c r="E102" s="20">
+      <c r="E102" s="18">
         <v>1.8</v>
       </c>
     </row>
     <row r="103" spans="4:6" ht="13.8">
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="17" t="s">
         <v>944</v>
       </c>
-      <c r="E103" s="20">
+      <c r="E103" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="4:6" ht="13.8">
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="17" t="s">
         <v>945</v>
       </c>
-      <c r="E104" s="20">
+      <c r="E104" s="18">
         <v>1.8</v>
       </c>
     </row>
     <row r="105" spans="4:6" ht="13.8">
-      <c r="D105" s="19" t="s">
+      <c r="D105" s="17" t="s">
         <v>946</v>
       </c>
-      <c r="E105" s="20">
+      <c r="E105" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="106" spans="4:6" ht="13.8">
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="17" t="s">
         <v>947</v>
       </c>
-      <c r="E106" s="20">
+      <c r="E106" s="18">
         <v>2.5</v>
       </c>
     </row>
     <row r="107" spans="4:6" ht="13.8">
-      <c r="D107" s="19" t="s">
+      <c r="D107" s="17" t="s">
         <v>948</v>
       </c>
-      <c r="E107" s="20">
+      <c r="E107" s="18">
         <v>4.5</v>
       </c>
     </row>
     <row r="108" spans="4:6" ht="13.8">
-      <c r="D108" s="19" t="s">
+      <c r="D108" s="17" t="s">
         <v>949</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="E108" s="21" t="s">
         <v>950</v>
       </c>
     </row>
